--- a/STUDIO/org.openl.rules.test/test-resources/functionality/EPBDS-9497_AliasDatatypesCasts_Errors.xlsx
+++ b/STUDIO/org.openl.rules.test/test-resources/functionality/EPBDS-9497_AliasDatatypesCasts_Errors.xlsx
@@ -3,29 +3,27 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ekosolapova\.openl\user-workspace\admin\ImplicitCastTest\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\OPENL\STUDIO\org.openl.rules.test\test-resources\functionality\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50B16470-EBD0-46BD-B1C7-EC023C15314B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BC2C880-3E38-4010-82C9-16EB183EEE34}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1155" yWindow="435" windowWidth="25500" windowHeight="15165" xr2:uid="{DDED059D-9BE1-49B6-A649-7FB85269A9F0}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15945" xr2:uid="{DDED059D-9BE1-49B6-A649-7FB85269A9F0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="52">
   <si>
     <t>aaa</t>
   </si>
@@ -44,18 +42,12 @@
     <t>ccc</t>
   </si>
   <si>
-    <t>fff</t>
-  </si>
-  <si>
     <t>Steps</t>
   </si>
   <si>
     <t>return 5;</t>
   </si>
   <si>
-    <t>ddd</t>
-  </si>
-  <si>
     <t>Datatype MyObject</t>
   </si>
   <si>
@@ -104,33 +96,6 @@
     <t>Datatype Datatype2 &lt;String&gt;</t>
   </si>
   <si>
-    <t>Datatype Datatype3 &lt;String&gt;</t>
-  </si>
-  <si>
-    <t>myObj.field1</t>
-  </si>
-  <si>
-    <t>myObj.field2</t>
-  </si>
-  <si>
-    <t>myObj.field3</t>
-  </si>
-  <si>
-    <t>_res_.$Step1</t>
-  </si>
-  <si>
-    <t>_res_.$Step2</t>
-  </si>
-  <si>
-    <t>_res_.$Step3</t>
-  </si>
-  <si>
-    <t>_res_.$Step4</t>
-  </si>
-  <si>
-    <t>_res_.$Step5</t>
-  </si>
-  <si>
     <t>=myMethod1((Datatype1)field2)</t>
   </si>
   <si>
@@ -149,12 +114,6 @@
     <t>return 7;</t>
   </si>
   <si>
-    <t>=myMethod1((Datatype1)field3)</t>
-  </si>
-  <si>
-    <t>=myMethod2((Datatype2)field3)</t>
-  </si>
-  <si>
     <t>=myMethod3((Datatype3)field1)</t>
   </si>
   <si>
@@ -164,24 +123,6 @@
     <t>Step6</t>
   </si>
   <si>
-    <t>Method Double myMethod3(Datatype2 someVal)</t>
-  </si>
-  <si>
-    <t>Spreadsheet SpreadsheetResult myExplicitCastSpr(MyObject myObj)</t>
-  </si>
-  <si>
-    <t>Test myExplicitCastSpr</t>
-  </si>
-  <si>
-    <t>_res_.$Step6</t>
-  </si>
-  <si>
-    <t>=myMethod3(field2)</t>
-  </si>
-  <si>
-    <t>=myMethod3(field1)</t>
-  </si>
-  <si>
     <t>Method Double myMethod3(Datatype3 someVal)</t>
   </si>
   <si>
@@ -194,15 +135,6 @@
     <t>Spreadsheet SpreadsheetResult aliasDatatypeCastsSpr(MyObject myObj)</t>
   </si>
   <si>
-    <t>Test aliasDatatypesCastsSpr</t>
-  </si>
-  <si>
-    <t>Test aliasDatatypeCastsSpr</t>
-  </si>
-  <si>
-    <t>Datatype Datatype3 &lt;StringValue&gt;</t>
-  </si>
-  <si>
     <t>Datatype Datatype3 &lt;Integer&gt;</t>
   </si>
   <si>
@@ -210,17 +142,61 @@
   </si>
   <si>
     <t>2</t>
+  </si>
+  <si>
+    <t>Datatype Datatype4 &lt;Integer&gt;</t>
+  </si>
+  <si>
+    <t>Datatype4</t>
+  </si>
+  <si>
+    <t>field4</t>
+  </si>
+  <si>
+    <t>Step7</t>
+  </si>
+  <si>
+    <t>=myMethod3(field4)</t>
+  </si>
+  <si>
+    <t>return 9;</t>
+  </si>
+  <si>
+    <t>Method Double myMethod4(Datatype4 someVal)</t>
+  </si>
+  <si>
+    <t>Step8</t>
+  </si>
+  <si>
+    <t>=myMethod4(field3)</t>
+  </si>
+  <si>
+    <t>Step9</t>
+  </si>
+  <si>
+    <t>Step10</t>
+  </si>
+  <si>
+    <t>= getValues(Datatype3)</t>
+  </si>
+  <si>
+    <t>= (Datatype3) $Step9</t>
+  </si>
+  <si>
+    <t>Step11</t>
+  </si>
+  <si>
+    <t>= (Datatype4) $Step9</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1" rgb="000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -250,14 +226,17 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -273,9 +252,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -313,7 +292,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -419,7 +398,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -569,176 +548,235 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27CAE0D4-4D0A-4A7C-8225-83CC9680A895}">
-  <dimension ref="C3:T31"/>
+  <dimension ref="C3:T36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S21" sqref="S21"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" customWidth="true" width="21.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="3" max="3" width="21" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:20" x14ac:dyDescent="0.45">
       <c r="C3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>56</v>
+        <v>34</v>
+      </c>
+      <c r="M3" t="s">
+        <v>37</v>
       </c>
       <c r="S3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="3:20" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="3:20" x14ac:dyDescent="0.45">
       <c r="C4" t="s">
         <v>0</v>
       </c>
-      <c r="F4" t="s" s="0">
+      <c r="F4" t="s">
         <v>2</v>
       </c>
       <c r="I4" t="s">
-        <v>57</v>
+        <v>35</v>
+      </c>
+      <c r="M4" t="s">
+        <v>35</v>
       </c>
       <c r="S4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="T4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="3:20" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="3:20" x14ac:dyDescent="0.45">
       <c r="C5" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="0" t="s">
+      <c r="F5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" t="s">
+        <v>36</v>
+      </c>
+      <c r="M5" s="2">
+        <v>3</v>
+      </c>
+      <c r="S5" t="s">
+        <v>8</v>
+      </c>
+      <c r="T5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="3:20" x14ac:dyDescent="0.45">
+      <c r="S6" t="s">
+        <v>10</v>
+      </c>
+      <c r="T6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="3:20" x14ac:dyDescent="0.45">
+      <c r="S7" t="s">
+        <v>38</v>
+      </c>
+      <c r="T7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="3:20" x14ac:dyDescent="0.45">
+      <c r="C11" t="s">
         <v>33</v>
       </c>
-      <c r="I5" t="s">
-        <v>58</v>
-      </c>
-      <c r="S5" t="s">
-        <v>10</v>
-      </c>
-      <c r="T5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="S6" t="s">
+    </row>
+    <row r="12" spans="3:20" x14ac:dyDescent="0.45">
+      <c r="C12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" t="s">
         <v>12</v>
       </c>
-      <c r="T6" t="s">
+    </row>
+    <row r="13" spans="3:20" x14ac:dyDescent="0.45">
+      <c r="C13" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="3:20" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="3:20" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C11" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C12" t="s">
+      <c r="D13" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="3:20" x14ac:dyDescent="0.45">
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="3:20" x14ac:dyDescent="0.45">
+      <c r="C15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="3:20" x14ac:dyDescent="0.45">
+      <c r="C16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="C17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="C18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="C19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="C20" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="C21" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="C22" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="C23" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="D24" s="1"/>
+    </row>
+    <row r="25" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" s="1"/>
+    </row>
+    <row r="26" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="C26" t="s">
         <v>4</v>
       </c>
-      <c r="D12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C16" t="s">
+      <c r="D26" s="1"/>
+    </row>
+    <row r="28" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="C28" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="C29" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C17" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C18" t="s">
+    </row>
+    <row r="31" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="C31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="C32" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C35" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C36" t="s">
         <v>42</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D21" s="1"/>
-    </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D22" s="1"/>
-    </row>
-    <row r="23" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D23" s="1"/>
-    </row>
-    <row r="24" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C24" t="s">
-        <v>36</v>
-      </c>
-      <c r="D24" s="1"/>
-    </row>
-    <row r="25" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C25" t="s">
-        <v>5</v>
-      </c>
-      <c r="D25" s="1"/>
-    </row>
-    <row r="27" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C27" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="28" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C28" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="30" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C30" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="31" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C31" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>
